--- a/Data/population_data.xlsx
+++ b/Data/population_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuykovochka\Desktop\check\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F1F932-2FBE-458D-B643-5236988ABE36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,40 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+  <si>
+    <t>Субъект РФ</t>
+  </si>
+  <si>
+    <t>Год</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Численность (млн)</t>
+  </si>
+  <si>
+    <t>СПб</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +365,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="33.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>